--- a/src/main/resources/excel/1 Body.xlsx
+++ b/src/main/resources/excel/1 Body.xlsx
@@ -1056,7 +1056,7 @@
       <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1198,10 +1198,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.27"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1368,7 +1371,7 @@
       <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1502,7 +1505,7 @@
       <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1647,7 +1650,7 @@
       <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1781,7 +1784,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.18"/>
   </cols>
@@ -1918,9 +1921,9 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,7 +2058,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -2193,7 +2196,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2327,7 +2330,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
